--- a/database/industries/khodro/khodro/cost/yearly.xlsx
+++ b/database/industries/khodro/khodro/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khodro\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78869072-47FB-49AE-9A09-29EBDDD92F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4432D380-B24E-4140-A02C-2744875A7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -623,12 +623,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,7 +638,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -672,7 +672,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -706,7 +706,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -728,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -738,7 +738,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -760,7 +760,7 @@
         <v>741389548</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -782,7 +782,7 @@
         <v>8635085</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -804,7 +804,7 @@
         <v>76298122</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -826,7 +826,7 @@
         <v>826322755</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -848,7 +848,7 @@
         <v>-20257805</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -870,7 +870,7 @@
         <v>806064950</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -892,7 +892,7 @@
         <v>-3174182</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -936,7 +936,7 @@
         <v>802890768</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -958,7 +958,7 @@
         <v>40232126</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -980,7 +980,7 @@
         <v>-55951031</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>787171863</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>367498105</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>1154669968</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1056,7 +1056,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1066,7 +1066,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1076,7 +1076,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1108,7 +1108,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>1</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1174,7 +1174,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1184,7 +1184,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>1</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1272,7 +1272,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1282,7 +1282,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1292,7 +1292,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1324,7 +1324,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>1</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1380,7 +1380,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1390,7 +1390,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1400,7 +1400,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1432,7 +1432,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1488,7 +1488,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1508,7 +1508,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>29</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1540,7 +1540,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <v>1</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>30656424</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>30656424</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1596,7 +1596,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1606,7 +1606,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1616,7 +1616,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>31</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1648,7 +1648,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>1</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>767276245</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>767276245</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1704,7 +1704,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1714,7 +1714,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1724,7 +1724,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>32</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1756,7 +1756,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8">
         <v>1</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>741389548</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>741389548</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1812,7 +1812,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1822,7 +1822,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1832,7 +1832,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>33</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1864,7 +1864,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <v>1</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>56543121</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>56543121</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1920,7 +1920,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1930,7 +1930,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1940,7 +1940,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>34</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1972,7 +1972,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8">
         <v>1</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>767276245000000</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2006,7 +2006,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2016,7 +2016,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2026,7 +2026,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>36</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2058,7 +2058,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8">
         <v>1</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>741389548000000</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2092,7 +2092,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2102,7 +2102,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2112,7 +2112,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>37</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2144,7 +2144,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>38</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>39</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
         <v>40</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>41</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>42</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>4671665</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>43</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>831780</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>44</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>5497630</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>45</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>59860308</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>46</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>47</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>5436739</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
         <v>12</v>
       </c>

--- a/database/industries/khodro/khodro/cost/yearly.xlsx
+++ b/database/industries/khodro/khodro/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4432D380-B24E-4140-A02C-2744875A7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA52525-93F5-4C7E-8325-FC06A73AB3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -623,12 +623,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,7 +638,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -672,7 +672,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -706,7 +706,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -728,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -738,7 +738,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -760,7 +760,7 @@
         <v>741389548</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -782,7 +782,7 @@
         <v>8635085</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -804,7 +804,7 @@
         <v>76298122</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -826,7 +826,7 @@
         <v>826322755</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -848,7 +848,7 @@
         <v>-20257805</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -870,7 +870,7 @@
         <v>806064950</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -892,7 +892,7 @@
         <v>-3174182</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -936,7 +936,7 @@
         <v>802890768</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -958,7 +958,7 @@
         <v>40232126</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -980,7 +980,7 @@
         <v>-55951031</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>787171863</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>367498105</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>1154669968</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1056,7 +1056,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1066,7 +1066,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1076,7 +1076,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1108,7 +1108,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <v>1</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1174,7 +1174,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1184,7 +1184,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8">
         <v>1</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1272,7 +1272,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1282,7 +1282,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1292,7 +1292,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1324,7 +1324,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8">
         <v>1</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1380,7 +1380,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1390,7 +1390,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1400,7 +1400,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1432,7 +1432,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8">
         <v>1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1488,7 +1488,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1508,7 +1508,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>29</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1540,7 +1540,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8">
         <v>1</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>30656424</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>30656424</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1596,7 +1596,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1606,7 +1606,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1616,7 +1616,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>31</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1648,7 +1648,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8">
         <v>1</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>767276245</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>767276245</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1704,7 +1704,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1714,7 +1714,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1724,7 +1724,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>32</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1756,7 +1756,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8">
         <v>1</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>741389548</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>741389548</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1812,7 +1812,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1822,7 +1822,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1832,7 +1832,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>33</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1864,7 +1864,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8">
         <v>1</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>56543121</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>56543121</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1920,7 +1920,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1930,7 +1930,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1940,7 +1940,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>34</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1972,7 +1972,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8">
         <v>1</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>767276245000000</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2006,7 +2006,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2016,7 +2016,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2026,7 +2026,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>36</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2058,7 +2058,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8">
         <v>1</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>741389548000000</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2092,7 +2092,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2102,7 +2102,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2112,7 +2112,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>37</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2144,7 +2144,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>38</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>39</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>40</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>41</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>42</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>4671665</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>43</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>831780</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>44</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>5497630</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>45</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>59860308</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>46</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>47</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>5436739</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>12</v>
       </c>
